--- a/sdr1.xlsx
+++ b/sdr1.xlsx
@@ -461,19 +461,19 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -783,7 +783,7 @@
   <dimension ref="A1:FE13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CX18" sqref="CX18"/>
+      <selection activeCell="EW10" sqref="EW10:EX10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,10 +1572,10 @@
       <c r="CQ4" s="44"/>
       <c r="CT4" s="49"/>
       <c r="CU4" s="49"/>
-      <c r="CX4" s="43" t="s">
+      <c r="CV4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="CY4" s="43"/>
+      <c r="CW4" s="43"/>
       <c r="CZ4" s="48" t="s">
         <v>26</v>
       </c>
@@ -1618,10 +1618,10 @@
       <c r="EO4" s="52"/>
       <c r="EP4" s="22"/>
       <c r="EQ4" s="22"/>
-      <c r="ET4" s="43" t="s">
+      <c r="ER4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="EU4" s="43"/>
+      <c r="ES4" s="43"/>
       <c r="EV4" s="48" t="s">
         <v>9</v>
       </c>
@@ -1763,10 +1763,10 @@
       <c r="CS5" s="51"/>
       <c r="CT5" s="42"/>
       <c r="CU5" s="42"/>
-      <c r="CX5" s="51" t="s">
+      <c r="CV5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="CY5" s="51"/>
+      <c r="CW5" s="51"/>
       <c r="CZ5" s="50"/>
       <c r="DA5" s="50"/>
       <c r="DB5" s="52"/>
@@ -1819,10 +1819,10 @@
       <c r="EO5" s="51"/>
       <c r="EP5" s="22"/>
       <c r="EQ5" s="22"/>
-      <c r="ET5" s="51" t="s">
+      <c r="ER5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="EU5" s="51"/>
+      <c r="ES5" s="51"/>
       <c r="EV5" s="54" t="s">
         <v>9</v>
       </c>
@@ -1996,8 +1996,8 @@
       <c r="EO6" s="58"/>
       <c r="EP6" s="22"/>
       <c r="EQ6" s="22"/>
-      <c r="ET6" s="47"/>
-      <c r="EU6" s="47"/>
+      <c r="ER6" s="47"/>
+      <c r="ES6" s="47"/>
       <c r="EV6" s="42"/>
       <c r="EW6" s="42"/>
       <c r="EZ6" s="47"/>
@@ -2191,10 +2191,10 @@
       <c r="CS7" s="61"/>
       <c r="CT7" s="42"/>
       <c r="CU7" s="42"/>
-      <c r="CX7" s="61">
-        <v>0</v>
-      </c>
-      <c r="CY7" s="61"/>
+      <c r="CV7" s="61">
+        <v>0</v>
+      </c>
+      <c r="CW7" s="61"/>
       <c r="CZ7" s="60">
         <v>0</v>
       </c>
@@ -2263,10 +2263,10 @@
       <c r="EO7" s="61"/>
       <c r="EP7" s="22"/>
       <c r="EQ7" s="22"/>
-      <c r="ET7" s="61">
-        <v>0</v>
-      </c>
-      <c r="EU7" s="61"/>
+      <c r="ER7" s="61">
+        <v>0</v>
+      </c>
+      <c r="ES7" s="61"/>
       <c r="EV7" s="60">
         <v>0</v>
       </c>
@@ -2434,10 +2434,10 @@
       <c r="CS8" s="63"/>
       <c r="CT8" s="42"/>
       <c r="CU8" s="42"/>
-      <c r="CX8" s="63" t="s">
+      <c r="CV8" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="CY8" s="63"/>
+      <c r="CW8" s="63"/>
       <c r="CZ8" s="62" t="s">
         <v>26</v>
       </c>
@@ -2500,10 +2500,10 @@
       <c r="EO8" s="63"/>
       <c r="EP8" s="22"/>
       <c r="EQ8" s="22"/>
-      <c r="ET8" s="63" t="s">
+      <c r="ER8" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="EU8" s="63"/>
+      <c r="ES8" s="63"/>
       <c r="EV8" s="62" t="s">
         <v>9</v>
       </c>
@@ -2677,146 +2677,136 @@
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
       <c r="L10" s="52"/>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71" t="s">
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71" t="s">
+      <c r="R10" s="67"/>
+      <c r="S10" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71" t="s">
+      <c r="T10" s="67"/>
+      <c r="U10" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="V10" s="71"/>
-      <c r="W10" s="67" t="s">
+      <c r="V10" s="67"/>
+      <c r="Y10" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="X10" s="67"/>
+      <c r="Z10" s="70"/>
       <c r="AE10" s="25"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
       <c r="AJ10" s="19"/>
-      <c r="AK10" s="68"/>
+      <c r="AK10" s="71"/>
       <c r="AL10" s="69"/>
-      <c r="AM10" s="67" t="s">
+      <c r="AO10" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="AN10" s="67"/>
-      <c r="AU10" s="70"/>
-      <c r="AV10" s="68"/>
+      <c r="AP10" s="70"/>
+      <c r="AU10" s="68"/>
+      <c r="AV10" s="71"/>
       <c r="AW10" s="19"/>
       <c r="AX10" s="19"/>
       <c r="AY10" s="19"/>
       <c r="AZ10" s="19"/>
       <c r="BA10" s="19"/>
       <c r="BB10" s="20"/>
-      <c r="BC10" s="70"/>
-      <c r="BD10" s="69"/>
-      <c r="BE10" s="52"/>
-      <c r="BF10" s="52"/>
-      <c r="BK10" s="71" t="s">
+      <c r="BE10" s="68"/>
+      <c r="BF10" s="69"/>
+      <c r="BK10" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="BL10" s="71"/>
-      <c r="BM10" s="71" t="s">
+      <c r="BL10" s="67"/>
+      <c r="BM10" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="BN10" s="71"/>
-      <c r="BO10" s="71" t="s">
+      <c r="BN10" s="67"/>
+      <c r="BO10" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="BP10" s="71"/>
-      <c r="BQ10" s="71" t="s">
+      <c r="BP10" s="67"/>
+      <c r="BQ10" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="BR10" s="71"/>
-      <c r="BS10" s="70"/>
-      <c r="BT10" s="69"/>
-      <c r="BU10" s="52"/>
-      <c r="BV10" s="52"/>
-      <c r="CA10" s="71" t="s">
+      <c r="BR10" s="67"/>
+      <c r="BU10" s="68"/>
+      <c r="BV10" s="69"/>
+      <c r="CA10" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="CB10" s="71"/>
-      <c r="CC10" s="71" t="s">
+      <c r="CB10" s="67"/>
+      <c r="CC10" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="CD10" s="71"/>
-      <c r="CE10" s="71" t="s">
+      <c r="CD10" s="67"/>
+      <c r="CE10" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="CF10" s="71"/>
-      <c r="CG10" s="71" t="s">
+      <c r="CF10" s="67"/>
+      <c r="CG10" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="CH10" s="71"/>
-      <c r="CI10" s="70"/>
-      <c r="CJ10" s="69"/>
+      <c r="CH10" s="67"/>
+      <c r="CK10" s="68"/>
+      <c r="CL10" s="69"/>
       <c r="CM10" s="52"/>
       <c r="CN10" s="52"/>
-      <c r="CQ10" s="70"/>
-      <c r="CR10" s="68"/>
-      <c r="CS10" s="68"/>
-      <c r="CT10" s="68"/>
+      <c r="CQ10" s="68"/>
+      <c r="CR10" s="71"/>
+      <c r="CS10" s="71"/>
+      <c r="CT10" s="71"/>
       <c r="CU10" s="3"/>
       <c r="CV10" s="3"/>
       <c r="CW10" s="3"/>
       <c r="CX10" s="4"/>
-      <c r="CY10" s="70"/>
-      <c r="CZ10" s="69"/>
-      <c r="DG10" s="70"/>
-      <c r="DH10" s="68"/>
-      <c r="DI10" s="68"/>
-      <c r="DJ10" s="68"/>
-      <c r="DK10" s="68"/>
-      <c r="DL10" s="68"/>
-      <c r="DM10" s="68"/>
+      <c r="DA10" s="68"/>
+      <c r="DB10" s="69"/>
+      <c r="DG10" s="68"/>
+      <c r="DH10" s="71"/>
+      <c r="DI10" s="71"/>
+      <c r="DJ10" s="71"/>
+      <c r="DK10" s="71"/>
+      <c r="DL10" s="71"/>
+      <c r="DM10" s="71"/>
       <c r="DN10" s="69"/>
-      <c r="DO10" s="67" t="s">
+      <c r="DQ10" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="DP10" s="67"/>
-      <c r="DQ10" s="52"/>
-      <c r="DR10" s="52"/>
-      <c r="DW10" s="71" t="s">
+      <c r="DR10" s="70"/>
+      <c r="DW10" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="DX10" s="71"/>
-      <c r="DY10" s="71" t="s">
+      <c r="DX10" s="67"/>
+      <c r="DY10" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="DZ10" s="71"/>
-      <c r="EA10" s="71" t="s">
+      <c r="DZ10" s="67"/>
+      <c r="EA10" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="EB10" s="71"/>
-      <c r="EC10" s="71" t="s">
+      <c r="EB10" s="67"/>
+      <c r="EC10" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="ED10" s="71"/>
-      <c r="EE10" s="70"/>
-      <c r="EF10" s="69"/>
-      <c r="EG10" s="52"/>
-      <c r="EH10" s="52"/>
-      <c r="EM10" s="70"/>
-      <c r="EN10" s="68"/>
-      <c r="EO10" s="68"/>
-      <c r="EP10" s="68"/>
-      <c r="EQ10" s="68"/>
-      <c r="ER10" s="68"/>
-      <c r="ES10" s="68"/>
+      <c r="ED10" s="67"/>
+      <c r="EG10" s="68"/>
+      <c r="EH10" s="69"/>
+      <c r="EM10" s="68"/>
+      <c r="EN10" s="71"/>
+      <c r="EO10" s="71"/>
+      <c r="EP10" s="71"/>
+      <c r="EQ10" s="71"/>
+      <c r="ER10" s="71"/>
+      <c r="ES10" s="71"/>
       <c r="ET10" s="69"/>
-      <c r="EU10" s="70"/>
-      <c r="EV10" s="69"/>
-      <c r="EW10" s="52"/>
-      <c r="EX10" s="52"/>
+      <c r="EW10" s="68"/>
+      <c r="EX10" s="69"/>
       <c r="EY10" s="52"/>
       <c r="EZ10" s="52"/>
       <c r="FC10" s="52"/>
@@ -2967,7 +2957,7 @@
       <c r="DI13" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="483">
+  <mergeCells count="478">
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="BL7:BM7"/>
     <mergeCell ref="BT4:BU4"/>
@@ -2981,6 +2971,17 @@
     <mergeCell ref="BN6:BO6"/>
     <mergeCell ref="BN7:BO7"/>
     <mergeCell ref="BN8:BO8"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AF8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AJ8:AK8"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="T8:U8"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
@@ -3013,30 +3014,27 @@
     <mergeCell ref="X8:Y8"/>
     <mergeCell ref="X9:Y9"/>
     <mergeCell ref="DJ9:DK9"/>
-    <mergeCell ref="DO10:DP10"/>
+    <mergeCell ref="DQ10:DR10"/>
     <mergeCell ref="BD5:BE5"/>
     <mergeCell ref="EQ10:ER10"/>
     <mergeCell ref="ES10:ET10"/>
+    <mergeCell ref="EY10:EZ10"/>
     <mergeCell ref="EW10:EX10"/>
-    <mergeCell ref="EY10:EZ10"/>
-    <mergeCell ref="EU10:EV10"/>
     <mergeCell ref="EC10:ED10"/>
     <mergeCell ref="EG10:EH10"/>
-    <mergeCell ref="EE10:EF10"/>
     <mergeCell ref="EM10:EN10"/>
     <mergeCell ref="EO10:EP10"/>
     <mergeCell ref="DM10:DN10"/>
-    <mergeCell ref="DQ10:DR10"/>
     <mergeCell ref="DW10:DX10"/>
     <mergeCell ref="DY10:DZ10"/>
     <mergeCell ref="EA10:EB10"/>
     <mergeCell ref="CQ10:CR10"/>
     <mergeCell ref="CS10:CT10"/>
-    <mergeCell ref="CY10:CZ10"/>
+    <mergeCell ref="DA10:DB10"/>
     <mergeCell ref="DG10:DH10"/>
     <mergeCell ref="DI10:DJ10"/>
     <mergeCell ref="DK10:DL10"/>
-    <mergeCell ref="CI10:CJ10"/>
+    <mergeCell ref="CK10:CL10"/>
     <mergeCell ref="CA10:CB10"/>
     <mergeCell ref="CC10:CD10"/>
     <mergeCell ref="CE10:CF10"/>
@@ -3046,14 +3044,12 @@
     <mergeCell ref="BM10:BN10"/>
     <mergeCell ref="BO10:BP10"/>
     <mergeCell ref="BQ10:BR10"/>
-    <mergeCell ref="BS10:BT10"/>
     <mergeCell ref="BU10:BV10"/>
-    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AO10:AP10"/>
     <mergeCell ref="AU10:AV10"/>
     <mergeCell ref="BE10:BF10"/>
-    <mergeCell ref="BC10:BD10"/>
     <mergeCell ref="FD9:FE9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
@@ -3091,11 +3087,6 @@
     <mergeCell ref="BJ9:BK9"/>
     <mergeCell ref="BZ9:CA9"/>
     <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
     <mergeCell ref="EZ8:FA8"/>
     <mergeCell ref="FB8:FC8"/>
     <mergeCell ref="FD8:FE8"/>
@@ -3109,7 +3100,7 @@
     <mergeCell ref="EL8:EM8"/>
     <mergeCell ref="EN8:EO8"/>
     <mergeCell ref="EV8:EW8"/>
-    <mergeCell ref="ET8:EU8"/>
+    <mergeCell ref="ER8:ES8"/>
     <mergeCell ref="DR8:DS8"/>
     <mergeCell ref="DV8:DW8"/>
     <mergeCell ref="DX8:DY8"/>
@@ -3125,23 +3116,17 @@
     <mergeCell ref="CP8:CQ8"/>
     <mergeCell ref="CR8:CS8"/>
     <mergeCell ref="CT8:CU8"/>
-    <mergeCell ref="CX8:CY8"/>
+    <mergeCell ref="CV8:CW8"/>
     <mergeCell ref="BB8:BC8"/>
     <mergeCell ref="BD8:BE8"/>
     <mergeCell ref="CD8:CE8"/>
-    <mergeCell ref="AF8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AJ8:AK8"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AR8:AS8"/>
-    <mergeCell ref="T8:U8"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="Z8:AA8"/>
     <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="AD8:AE8"/>
     <mergeCell ref="EN7:EO7"/>
     <mergeCell ref="EV7:EW7"/>
-    <mergeCell ref="ET7:EU7"/>
+    <mergeCell ref="ER7:ES7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="J8:K8"/>
@@ -3160,7 +3145,7 @@
     <mergeCell ref="DX7:DY7"/>
     <mergeCell ref="CR7:CS7"/>
     <mergeCell ref="CT7:CU7"/>
-    <mergeCell ref="CX7:CY7"/>
+    <mergeCell ref="CV7:CW7"/>
     <mergeCell ref="CZ7:DA7"/>
     <mergeCell ref="DL7:DM7"/>
     <mergeCell ref="CF7:CG7"/>
@@ -3207,7 +3192,7 @@
     <mergeCell ref="EL6:EM6"/>
     <mergeCell ref="EN6:EO6"/>
     <mergeCell ref="EV6:EW6"/>
-    <mergeCell ref="ET6:EU6"/>
+    <mergeCell ref="ER6:ES6"/>
     <mergeCell ref="EZ6:FA6"/>
     <mergeCell ref="DV6:DW6"/>
     <mergeCell ref="DX6:DY6"/>
@@ -3258,7 +3243,7 @@
     <mergeCell ref="EL5:EM5"/>
     <mergeCell ref="EN5:EO5"/>
     <mergeCell ref="EV5:EW5"/>
-    <mergeCell ref="ET5:EU5"/>
+    <mergeCell ref="ER5:ES5"/>
     <mergeCell ref="EZ5:FA5"/>
     <mergeCell ref="FB5:FC5"/>
     <mergeCell ref="DX5:DY5"/>
@@ -3275,7 +3260,7 @@
     <mergeCell ref="CP5:CQ5"/>
     <mergeCell ref="CR5:CS5"/>
     <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CX5:CY5"/>
+    <mergeCell ref="CV5:CW5"/>
     <mergeCell ref="DB5:DC5"/>
     <mergeCell ref="DD5:DE5"/>
     <mergeCell ref="BZ5:CA5"/>
@@ -3310,13 +3295,13 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="EN4:EO4"/>
     <mergeCell ref="EV4:EW4"/>
-    <mergeCell ref="ET4:EU4"/>
+    <mergeCell ref="ER4:ES4"/>
     <mergeCell ref="EZ4:FA4"/>
     <mergeCell ref="CZ4:DA4"/>
     <mergeCell ref="CH4:CI4"/>
     <mergeCell ref="CP4:CQ4"/>
     <mergeCell ref="CT4:CU4"/>
-    <mergeCell ref="CX4:CY4"/>
+    <mergeCell ref="CV4:CW4"/>
     <mergeCell ref="DB4:DC4"/>
     <mergeCell ref="BP4:BQ4"/>
     <mergeCell ref="CD4:CE4"/>
@@ -5106,29 +5091,29 @@
       <c r="H10" s="52"/>
       <c r="I10" s="52"/>
       <c r="J10" s="52"/>
-      <c r="K10" s="71" t="s">
+      <c r="K10" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71" t="s">
+      <c r="L10" s="67"/>
+      <c r="M10" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71" t="s">
+      <c r="N10" s="67"/>
+      <c r="O10" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71" t="s">
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="71"/>
+      <c r="R10" s="67"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
       <c r="AF10" s="13"/>
-      <c r="AG10" s="68"/>
+      <c r="AG10" s="71"/>
       <c r="AH10" s="69"/>
       <c r="AM10" s="10"/>
       <c r="AN10" s="10"/>
@@ -5144,22 +5129,22 @@
       <c r="BD10" s="10"/>
       <c r="BE10" s="52"/>
       <c r="BF10" s="52"/>
-      <c r="BG10" s="71" t="s">
+      <c r="BG10" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="BH10" s="71"/>
-      <c r="BI10" s="71" t="s">
+      <c r="BH10" s="67"/>
+      <c r="BI10" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="BJ10" s="71"/>
-      <c r="BK10" s="71" t="s">
+      <c r="BJ10" s="67"/>
+      <c r="BK10" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="BL10" s="71"/>
-      <c r="BM10" s="71" t="s">
+      <c r="BL10" s="67"/>
+      <c r="BM10" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="BN10" s="71"/>
+      <c r="BN10" s="67"/>
       <c r="BP10" s="9"/>
       <c r="BQ10" s="9"/>
       <c r="BR10" s="9"/>
@@ -5196,9 +5181,9 @@
       <c r="DD10" s="13"/>
       <c r="DE10" s="13"/>
       <c r="DF10" s="13"/>
-      <c r="DG10" s="68"/>
-      <c r="DH10" s="68"/>
-      <c r="DI10" s="68"/>
+      <c r="DG10" s="71"/>
+      <c r="DH10" s="71"/>
+      <c r="DI10" s="71"/>
       <c r="DJ10" s="69"/>
       <c r="DO10" s="52"/>
       <c r="DP10" s="52"/>
@@ -5218,7 +5203,7 @@
       <c r="EF10" s="52"/>
       <c r="EG10" s="52"/>
       <c r="EH10" s="52"/>
-      <c r="EI10" s="70"/>
+      <c r="EI10" s="68"/>
       <c r="EJ10" s="69"/>
       <c r="EM10" s="52"/>
       <c r="EN10" s="52"/>
@@ -5234,7 +5219,7 @@
       <c r="EX10" s="52"/>
       <c r="EY10" s="52"/>
       <c r="EZ10" s="52"/>
-      <c r="FA10" s="70"/>
+      <c r="FA10" s="68"/>
       <c r="FB10" s="69"/>
       <c r="FC10" s="52"/>
       <c r="FD10" s="52"/>
